--- a/medicine/Psychotrope/Glossaire_de_la_viticulture/Glossaire_de_la_viticulture.xlsx
+++ b/medicine/Psychotrope/Glossaire_de_la_viticulture/Glossaire_de_la_viticulture.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce glossaire donne des définitions simples des principaux termes utilisés en viticulture. 
 Sommaire :
@@ -538,7 +550,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ampélographie : science étudiant les vignes et les cépages.
 Appellation d'origine contrôlée (AOC) : Appellation d'Origine Contrôlée. Label officiel qui protège et garantit l'origine géographique du vin.
@@ -571,7 +585,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Botrytis cinerea ; champignon phytopathogène responsable de la pourriture grise, maladie cryptogamique  d’intérêt agronomique majeur comme la vigne et également responsable de la pourriture noble qui permet d'obtenir certains vins liquoreux, comme le sauternes ou le tokay.
 Bouillie bordelaise ː Produit de traitement à base de sels de cuivre pour lutter contre le mildiou.</t>
@@ -602,7 +618,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Capite : petite construction installée dans les vignobles, servant autrefois de remise à outils.
 Cave coopérative de vinification : association de producteurs d'une région viticole. Ces structures collectent les raisins apportés par leurs adhérents, les vinifient et se chargent de la commercialisation des vins.
@@ -640,7 +658,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Débourrement : ouverture des bourgeons à la fin de l'hiver ou au début du printemps. À l'issue de cette étape, le bourgeon ne résiste plus aux températures négatives trop fortes et devient ainsi sensible aux gelées tardives.</t>
         </is>
@@ -670,7 +690,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Ébourgeonnage : suppression de certaines pousses indésirables (gourmands, double et triple bourres ou pousses) situées sur le courson, la baguette et le bois de l'année précédente.
 Échalas : bâton que l’on fiche en terre pour soutenir un cep de vigne
@@ -706,7 +728,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Fils releveurs : palissage permettant de maintenir verticalement les sarments et d'accompagner leurs croissances de façon  à optimiser la surface foliaire exposée. Ils permettent également de libérer de l'espace entre rangs pour permettre le passage des outils.
 Fils porteurs : palissage supportant le poids de la végétation et celui du raisin. Ils servent d’attache ou de support aux ceps, aux baguettes, cordons ou lattes, et dans certains cas aux tuteurs.</t>
@@ -737,7 +761,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Gelées de printemps : phénomène météorologique se produisant généralement en avril et en mai pouvant détruire brutalement les bourgeons de la vigne.
 Grangeon (Bugey) : ancienne habitation temporaire édifiée dans une parcelle de vignes
@@ -769,7 +795,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>hancher un cep : procéder au recépage des ceps de la vigne.</t>
         </is>
@@ -799,7 +827,9 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>If : égouttoir porte-bouteilles.
 In vino veritas : locution latine signifiant : « Dans le vin, la vérité ». Elle provient de Pline l’Ancien.</t>
@@ -830,7 +860,9 @@
           <t>J</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Jus de raisin : liquide extrait de la pulpe des baies de raisin pouvant être consommé comme boisson en l'état ou, s'il est destiné à être fermenté en vin, est alors appelé moût.</t>
         </is>
@@ -861,6 +893,8 @@
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -886,7 +920,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Millerandage : avortement partiel des raisins liée à une maturation défectueuse de la vigne.
 Millésime : année de récolte des raisins servant à la production d'un vin.
@@ -918,7 +954,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Nouaison : transformation de l'ovaire de la fleur en fruit à la suite de la fécondation.</t>
         </is>
@@ -948,7 +986,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Palissage : technique agricole consistant à conduire une plante sur une structure en y attachant ses tiges et ses branches à l’aide de liens, dans le but d’en améliorer la qualité et le rendement.
 Pampre : tige de vigne portant ses feuilles, ses vrilles et ses grappes de raisin.
@@ -983,6 +1023,8 @@
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1008,7 +1050,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Rafle : charpente de la grappe de raisin. Gardée ou jetée avant la vinification selon le vin désiré.
 Recépage :  technique utilisée de manière préventive pour régénérer les ceps de vigne et limiter les maladies du bois
@@ -1041,7 +1085,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Taille de la vigne : opération ayant pour but de limiter la croissance démesurée de la vigne pour régulariser la production en qualité et en quantité.
 Tannin : ensemble de composés variés issue de la baie de raisin et éventuellement de la rafle. Sans arômes ni saveurs, les tannins provoquent néanmoins une sensation tactile en bouche (assèchement du palais, resserrement des gencives).
@@ -1073,7 +1119,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Vendange : récolte du raisin destiné à la production du vin (le terme ne s'applique pas à la récolte de raisins de table). La « vendange » désigne également le raisin lui-même récolté à cette occasion. Le terme s'emploie au pluriel pour désigner l'époque de cette opération : « le temps des vendanges ».
 Vendangerot ou vendangeoir : panier utilisé en Bourgogne pour récolter le raisin pendant les vendanges.
@@ -1113,6 +1161,8 @@
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
